--- a/techniqo/data_new_ticker/VARROC.xlsx
+++ b/techniqo/data_new_ticker/VARROC.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G540"/>
+  <dimension ref="A1:G542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19286,6 +19286,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>318.5</v>
+      </c>
+      <c r="C541" t="n">
+        <v>321.95</v>
+      </c>
+      <c r="D541" t="n">
+        <v>310.7</v>
+      </c>
+      <c r="E541" t="n">
+        <v>315.5</v>
+      </c>
+      <c r="F541" t="n">
+        <v>101395</v>
+      </c>
+      <c r="G541" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>319</v>
+      </c>
+      <c r="C542" t="n">
+        <v>334.15</v>
+      </c>
+      <c r="D542" t="n">
+        <v>311.3</v>
+      </c>
+      <c r="E542" t="n">
+        <v>325.4</v>
+      </c>
+      <c r="F542" t="n">
+        <v>445207</v>
+      </c>
+      <c r="G542" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/VARROC.xlsx
+++ b/techniqo/data_new_ticker/VARROC.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G542"/>
+  <dimension ref="A1:G544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19336,6 +19336,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>323</v>
+      </c>
+      <c r="C543" t="n">
+        <v>329.9</v>
+      </c>
+      <c r="D543" t="n">
+        <v>320</v>
+      </c>
+      <c r="E543" t="n">
+        <v>321.8</v>
+      </c>
+      <c r="F543" t="n">
+        <v>111712</v>
+      </c>
+      <c r="G543" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>325</v>
+      </c>
+      <c r="C544" t="n">
+        <v>328.75</v>
+      </c>
+      <c r="D544" t="n">
+        <v>315</v>
+      </c>
+      <c r="E544" t="n">
+        <v>317.95</v>
+      </c>
+      <c r="F544" t="n">
+        <v>146023</v>
+      </c>
+      <c r="G544" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
